--- a/public/Collection Avery 5160 Template.xlsx
+++ b/public/Collection Avery 5160 Template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Artist</t>
   </si>
@@ -22,7 +22,10 @@
     <t>Art Medium</t>
   </si>
   <si>
-    <t>Price</t>
+    <t>Price or NFS</t>
+  </si>
+  <si>
+    <t>File Name</t>
   </si>
   <si>
     <t>Matt Wyatt</t>
@@ -32,6 +35,9 @@
   </si>
   <si>
     <t>Mixed Media</t>
+  </si>
+  <si>
+    <t>art_1.jpg</t>
   </si>
 </sst>
 </file>
@@ -328,19 +334,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3">
         <v>123.99</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
